--- a/schule/stundenplan/stundenplan.xlsx
+++ b/schule/stundenplan/stundenplan.xlsx
@@ -678,6 +678,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -979,7 +984,7 @@
   <dimension ref="A2:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1817,8 +1822,8 @@
       <c r="H26" s="3">
         <v>0.56597222222222221</v>
       </c>
-      <c r="I26" s="52" t="s">
-        <v>9</v>
+      <c r="I26" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="J26" s="43" t="s">
         <v>36</v>
@@ -1851,7 +1856,7 @@
       <c r="H27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="7">
         <v>2</v>
       </c>
       <c r="J27" s="44">
@@ -1885,7 +1890,7 @@
       <c r="H28" s="5">
         <v>0.59722222222222221</v>
       </c>
-      <c r="I28" s="54" t="s">
+      <c r="I28" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="45" t="s">
